--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="23000" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -46,25 +46,27 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
-  </si>
-  <si>
-    <t>countries that project changes in future reserve margin by year.</t>
-  </si>
-  <si>
-    <t>use China variables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">The reserve margin (difference between the total generation available and the forecasted peak demand) in the U.S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support countries that project </t>
+  </si>
+  <si>
+    <t>changes in future reserve margin by year.</t>
+  </si>
+  <si>
+    <t>(dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,23 +74,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,19 +99,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -215,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -267,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,23 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,48 +431,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -538,255 +484,247 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
         <v>2015</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1">
         <v>2017</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1">
         <v>2019</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1">
         <v>2021</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1">
         <v>2023</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1">
         <v>2025</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1">
         <v>2027</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1">
         <v>2029</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1">
         <v>2031</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1">
         <v>2033</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1">
         <v>2035</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1">
         <v>2037</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1">
         <v>2039</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1">
         <v>2041</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1">
         <v>2043</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1">
         <v>2045</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1">
         <v>2047</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1">
         <v>2049</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>0.15</v>
+      <c r="B2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0.14119999999999999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1020,6 +958,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1030,23 +977,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E0CDF1-7B82-4293-99A8-2CFCDCA1CB2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE43481F-BEE5-412F-B31D-E577DCD0FE2F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F591111-B7DD-44B4-A52D-412B1B6B88F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11A89B7-F100-4481-AC92-E8341E3406EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316E2D11-2D5C-42C3-93B4-77C11D2193AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F755981-AB41-4CA1-B01E-ECEFDE93D4AD}"/>
 </file>
--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="23000" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -46,27 +46,25 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">The reserve margin (difference between the total generation available and the forecasted peak demand) in the U.S. </t>
+    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
   </si>
   <si>
-    <t xml:space="preserve">dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support countries that project </t>
+    <t>countries that project changes in future reserve margin by year.</t>
   </si>
   <si>
-    <t>changes in future reserve margin by year.</t>
-  </si>
-  <si>
-    <t>(dimensionless)</t>
+    <t>use China variables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,8 +72,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,16 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,6 +215,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,20 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,47 +484,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -484,247 +538,255 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4">
         <v>2015</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="4">
         <v>2016</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <v>2017</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <v>2018</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <v>2019</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="4">
         <v>2020</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="4">
         <v>2021</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="4">
         <v>2022</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="4">
         <v>2023</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="4">
         <v>2024</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="4">
         <v>2025</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="4">
         <v>2026</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="4">
         <v>2027</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="4">
         <v>2028</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="4">
         <v>2029</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="4">
         <v>2030</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="4">
         <v>2031</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="4">
         <v>2032</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="4">
         <v>2033</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="4">
         <v>2034</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="4">
         <v>2035</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="4">
         <v>2036</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="4">
         <v>2037</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="4">
         <v>2038</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="4">
         <v>2039</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="4">
         <v>2040</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="4">
         <v>2041</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="4">
         <v>2042</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="4">
         <v>2043</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="4">
         <v>2044</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="4">
         <v>2045</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="4">
         <v>2046</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="4">
         <v>2047</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="4">
         <v>2048</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="4">
         <v>2049</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0.14119999999999999</v>
+      <c r="B2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -958,15 +1020,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -977,13 +1030,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE43481F-BEE5-412F-B31D-E577DCD0FE2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E0CDF1-7B82-4293-99A8-2CFCDCA1CB2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11A89B7-F100-4481-AC92-E8341E3406EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F591111-B7DD-44B4-A52D-412B1B6B88F5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F755981-AB41-4CA1-B01E-ECEFDE93D4AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316E2D11-2D5C-42C3-93B4-77C11D2193AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>